--- a/artfynd/A 61718-2022.xlsx
+++ b/artfynd/A 61718-2022.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109093841</v>
+        <v>109087719</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,35 +809,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>692007.8244037007</v>
+        <v>692101.9868787765</v>
       </c>
       <c r="R3" t="n">
-        <v>6603240.56795869</v>
+        <v>6603400.399665343</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,26 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109093936</v>
+        <v>109087657</v>
       </c>
       <c r="B4" t="n">
-        <v>5135</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105930</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,14 +948,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>691966.717275218</v>
+        <v>692101.9868787765</v>
       </c>
       <c r="R4" t="n">
-        <v>6603237.958451725</v>
+        <v>6603400.399665343</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109094776</v>
+        <v>109275724</v>
       </c>
       <c r="B5" t="n">
-        <v>4717</v>
+        <v>89356</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,43 +1040,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102306</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>691966.717275218</v>
+        <v>692162.660162741</v>
       </c>
       <c r="R5" t="n">
-        <v>6603237.958451725</v>
+        <v>6603269.325358069</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1104,22 +1095,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,26 +1121,55 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109087719</v>
+        <v>109274971</v>
       </c>
       <c r="B6" t="n">
-        <v>93375</v>
+        <v>8377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,38 +1182,43 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2180</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>692101.9868787765</v>
+        <v>692158.6768912391</v>
       </c>
       <c r="R6" t="n">
-        <v>6603400.399665343</v>
+        <v>6603337.22776466</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1217,22 +1242,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1243,23 +1268,52 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>109087657</v>
+        <v>109274466</v>
       </c>
       <c r="B7" t="n">
         <v>8377</v>
@@ -1305,13 +1359,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>692101.9868787765</v>
+        <v>692064.4314807209</v>
       </c>
       <c r="R7" t="n">
-        <v>6603400.399665343</v>
+        <v>6603378.149209215</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1335,22 +1389,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,26 +1415,55 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Död gren</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Dead branch  # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109094378</v>
+        <v>109274824</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>89412</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,38 +1476,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>691946.2646057748</v>
+        <v>692116.7626510015</v>
       </c>
       <c r="R8" t="n">
-        <v>6603199.809942768</v>
+        <v>6603330.509254332</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1448,22 +1535,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,6 +1561,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1494,10 +1606,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109095581</v>
+        <v>109275080</v>
       </c>
       <c r="B9" t="n">
-        <v>101680</v>
+        <v>8377</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,43 +1622,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222412</v>
+        <v>106545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>blomning</t>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>N Visättra , Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>691966.717275218</v>
+        <v>692087.9689426338</v>
       </c>
       <c r="R9" t="n">
-        <v>6603237.958451725</v>
+        <v>6603306.165148152</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1573,22 +1682,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,26 +1708,55 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109087801</v>
+        <v>109275208</v>
       </c>
       <c r="B10" t="n">
-        <v>93375</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1631,38 +1769,43 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>692008.1486492737</v>
+        <v>692185.8458587799</v>
       </c>
       <c r="R10" t="n">
-        <v>6603393.568070449</v>
+        <v>6603313.713551708</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1686,22 +1829,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1712,26 +1855,55 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109094688</v>
+        <v>109275502</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,35 +1916,48 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>691882.1497045225</v>
+        <v>692020.3893605695</v>
       </c>
       <c r="R11" t="n">
-        <v>6603199.075242898</v>
+        <v>6603293.560877106</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1799,22 +1984,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,6 +2010,31 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Populus tremula</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1845,10 +2055,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109094605</v>
+        <v>109275036</v>
       </c>
       <c r="B12" t="n">
-        <v>89403</v>
+        <v>8377</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,39 +2071,40 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1205</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>691937.0099140215</v>
+        <v>692059.0651667865</v>
       </c>
       <c r="R12" t="n">
-        <v>6603211.535349998</v>
+        <v>6603313.83554531</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
@@ -1920,22 +2131,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,6 +2157,31 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Död gren</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Dead branch  # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1966,10 +2202,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109275724</v>
+        <v>107953046</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>89412</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,25 +2214,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2007,13 +2243,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>692162.660162741</v>
+        <v>692196.0545202596</v>
       </c>
       <c r="R13" t="n">
-        <v>6603269.325358069</v>
+        <v>6603382.849667672</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2037,22 +2273,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2063,41 +2299,16 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2108,10 +2319,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>109274971</v>
+        <v>108478240</v>
       </c>
       <c r="B14" t="n">
-        <v>8377</v>
+        <v>93375</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2124,43 +2335,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>106545</v>
+        <v>2180</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>692158.6768912391</v>
+        <v>692066.5236341339</v>
       </c>
       <c r="R14" t="n">
-        <v>6603337.22776466</v>
+        <v>6603416.882525731</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2184,22 +2390,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2210,41 +2416,16 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2255,10 +2436,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>109274466</v>
+        <v>108323070</v>
       </c>
       <c r="B15" t="n">
-        <v>8377</v>
+        <v>93375</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2271,43 +2452,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>2180</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>692064.4314807209</v>
+        <v>692066.468771309</v>
       </c>
       <c r="R15" t="n">
-        <v>6603378.149209215</v>
+        <v>6603348.266898987</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2331,22 +2507,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2357,41 +2533,16 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Död gren</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Dead branch  # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2402,10 +2553,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>109275899</v>
+        <v>109346026</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2418,24 +2569,33 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2443,13 +2603,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>691978.9203393777</v>
+        <v>692028.5766858526</v>
       </c>
       <c r="R16" t="n">
-        <v>6603248.239127089</v>
+        <v>6603282.797859765</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2473,22 +2633,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2499,41 +2659,16 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2544,10 +2679,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109276163</v>
+        <v>109345595</v>
       </c>
       <c r="B17" t="n">
-        <v>89403</v>
+        <v>93375</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2560,26 +2695,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1205</v>
+        <v>2180</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>dm²</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -2589,13 +2729,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>691941.2900257387</v>
+        <v>692039.1380827061</v>
       </c>
       <c r="R17" t="n">
-        <v>6603197.522658636</v>
+        <v>6603235.561497213</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2619,22 +2759,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2645,41 +2785,16 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Populus tremula</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2690,10 +2805,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109274824</v>
+        <v>108322100</v>
       </c>
       <c r="B18" t="n">
-        <v>89412</v>
+        <v>93375</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2702,46 +2817,51 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>m²</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Lugnet, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>692116.7626510015</v>
+        <v>692131.0267995562</v>
       </c>
       <c r="R18" t="n">
-        <v>6603330.509254332</v>
+        <v>6603240.769164512</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2765,22 +2885,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2791,41 +2911,16 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2836,10 +2931,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>109275080</v>
+        <v>109345480</v>
       </c>
       <c r="B19" t="n">
-        <v>8377</v>
+        <v>93375</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2852,40 +2947,44 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>2180</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>692087.9689426338</v>
+        <v>692070.2018065801</v>
       </c>
       <c r="R19" t="n">
-        <v>6603306.165148152</v>
+        <v>6603275.269424403</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2912,22 +3011,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2938,41 +3037,16 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2983,10 +3057,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109275208</v>
+        <v>108478228</v>
       </c>
       <c r="B20" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2999,43 +3073,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>692185.8458587799</v>
+        <v>692049.6628273097</v>
       </c>
       <c r="R20" t="n">
-        <v>6603313.713551708</v>
+        <v>6603418.053243431</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3059,22 +3128,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3085,41 +3154,16 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -3130,10 +3174,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>109276103</v>
+        <v>109954713</v>
       </c>
       <c r="B21" t="n">
-        <v>89392</v>
+        <v>8377</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3142,39 +3186,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>106545</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>691937.1653493673</v>
+        <v>692177.3757415327</v>
       </c>
       <c r="R21" t="n">
-        <v>6603208.493708277</v>
+        <v>6603280.243474371</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3201,7 +3250,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3211,7 +3260,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3227,55 +3276,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109276215</v>
+        <v>109955381</v>
       </c>
       <c r="B22" t="n">
-        <v>5113</v>
+        <v>96251</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3288,43 +3308,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>219790</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Lugnet, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>692003.4046029041</v>
+        <v>692151.2683162411</v>
       </c>
       <c r="R22" t="n">
-        <v>6603217.470192255</v>
+        <v>6603213.341812189</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3348,22 +3367,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3374,55 +3393,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109275502</v>
+        <v>109955210</v>
       </c>
       <c r="B23" t="n">
-        <v>56411</v>
+        <v>5135</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3431,20 +3421,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>105930</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3452,31 +3442,23 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Lugnet, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>692020.3893605695</v>
+        <v>692151.2683162411</v>
       </c>
       <c r="R23" t="n">
-        <v>6603293.560877106</v>
+        <v>6603213.341812189</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3503,22 +3485,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3529,55 +3511,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Populus tremula</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109275036</v>
+        <v>110551719</v>
       </c>
       <c r="B24" t="n">
-        <v>8377</v>
+        <v>96265</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3590,43 +3543,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>219790</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>692059.0651667865</v>
+        <v>692120.8163919358</v>
       </c>
       <c r="R24" t="n">
-        <v>6603313.83554531</v>
+        <v>6603171.630735207</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3650,22 +3597,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3676,55 +3623,26 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Död gren</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Dead branch  # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ola Hammarström</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>109558998</v>
+        <v>110551716</v>
       </c>
       <c r="B25" t="n">
-        <v>4717</v>
+        <v>73689</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3733,47 +3651,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>102306</v>
+        <v>308</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>691978.018771955</v>
+        <v>692167.5048449171</v>
       </c>
       <c r="R25" t="n">
-        <v>6603235.994792078</v>
+        <v>6603274.147568627</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3797,7 +3709,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3807,12 +3719,17 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>högstubbe invid tallmosse</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3827,22 +3744,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>109557829</v>
+        <v>110551710</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>78107</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3851,47 +3768,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>6453</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>692013.1876338981</v>
+        <v>692213.6378095441</v>
       </c>
       <c r="R26" t="n">
-        <v>6603235.251262903</v>
+        <v>6603278.033021837</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3915,7 +3826,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3925,12 +3836,17 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>tallved</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3945,22 +3861,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>109555797</v>
+        <v>110551712</v>
       </c>
       <c r="B27" t="n">
-        <v>4717</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3969,47 +3885,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>102306</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>691880.1240311366</v>
+        <v>692226.5665804257</v>
       </c>
       <c r="R27" t="n">
-        <v>6603218.794028151</v>
+        <v>6603274.120364176</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -4033,7 +3943,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -4043,12 +3953,17 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>tallved</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4063,22 +3978,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>109559039</v>
+        <v>110551715</v>
       </c>
       <c r="B28" t="n">
-        <v>93158</v>
+        <v>5295</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4087,42 +4002,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2818</v>
+        <v>101728</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>692012.0683376996</v>
+        <v>692043.1994797718</v>
       </c>
       <c r="R28" t="n">
-        <v>6603237.227088488</v>
+        <v>6603285.578547879</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4146,7 +4060,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4156,12 +4070,17 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>asplåga</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4176,22 +4095,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>109555657</v>
+        <v>109093841</v>
       </c>
       <c r="B29" t="n">
-        <v>4717</v>
+        <v>5113</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4204,40 +4123,35 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>102306</v>
+        <v>100526</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>691872.5427855599</v>
+        <v>692007.8244037007</v>
       </c>
       <c r="R29" t="n">
-        <v>6603207.733212797</v>
+        <v>6603240.56795869</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -4264,22 +4178,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4294,22 +4208,26 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>109557104</v>
+        <v>109093936</v>
       </c>
       <c r="B30" t="n">
-        <v>5402</v>
+        <v>5135</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4322,21 +4240,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>101377</v>
+        <v>105930</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stekelbock</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Necydalis major</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4352,10 +4270,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>691994.6471215505</v>
+        <v>691966.717275218</v>
       </c>
       <c r="R30" t="n">
-        <v>6603239.386073961</v>
+        <v>6603237.958451725</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4382,7 +4300,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4392,17 +4310,12 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>På stående äldre asp.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4429,10 +4342,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107953046</v>
+        <v>109094776</v>
       </c>
       <c r="B31" t="n">
-        <v>89412</v>
+        <v>4717</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4441,39 +4354,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5442</v>
+        <v>102306</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>692196.0545202596</v>
+        <v>691966.717275218</v>
       </c>
       <c r="R31" t="n">
-        <v>6603382.849667672</v>
+        <v>6603237.958451725</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4500,22 +4418,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4530,26 +4448,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY31" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107950268</v>
+        <v>109094378</v>
       </c>
       <c r="B32" t="n">
-        <v>8367</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4558,44 +4472,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106554</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>691942.1301243256</v>
+        <v>691946.2646057748</v>
       </c>
       <c r="R32" t="n">
-        <v>6603370.37205842</v>
+        <v>6603199.809942768</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4622,22 +4531,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4652,12 +4561,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4668,10 +4577,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>108478240</v>
+        <v>109095581</v>
       </c>
       <c r="B33" t="n">
-        <v>93375</v>
+        <v>101680</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4684,35 +4593,43 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2180</v>
+        <v>222412</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>N Visättra , Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>692066.5236341339</v>
+        <v>691966.717275218</v>
       </c>
       <c r="R33" t="n">
-        <v>6603416.882525731</v>
+        <v>6603237.958451725</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4739,22 +4656,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4769,26 +4686,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY33" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>109346216</v>
+        <v>109087801</v>
       </c>
       <c r="B34" t="n">
-        <v>93044</v>
+        <v>93375</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4801,21 +4714,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2809</v>
+        <v>2180</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4826,10 +4739,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>692014.8860874517</v>
+        <v>692008.1486492737</v>
       </c>
       <c r="R34" t="n">
-        <v>6603311.576628731</v>
+        <v>6603393.568070449</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4856,22 +4769,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4886,26 +4799,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY34" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>108323070</v>
+        <v>109094688</v>
       </c>
       <c r="B35" t="n">
-        <v>93375</v>
+        <v>89392</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4914,39 +4823,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>692066.468771309</v>
+        <v>691882.1497045225</v>
       </c>
       <c r="R35" t="n">
-        <v>6603348.266898987</v>
+        <v>6603199.075242898</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4973,22 +4882,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5003,12 +4912,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -5019,10 +4928,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>109346026</v>
+        <v>109094605</v>
       </c>
       <c r="B36" t="n">
-        <v>93375</v>
+        <v>89403</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5035,31 +4944,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2180</v>
+        <v>1205</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>dm²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -5069,13 +4973,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>692028.5766858526</v>
+        <v>691937.0099140215</v>
       </c>
       <c r="R36" t="n">
-        <v>6603282.797859765</v>
+        <v>6603211.535349998</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5099,22 +5003,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5129,12 +5033,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -5145,10 +5049,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>109345595</v>
+        <v>109275899</v>
       </c>
       <c r="B37" t="n">
-        <v>93375</v>
+        <v>5113</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5161,33 +5065,24 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5195,13 +5090,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>692039.1380827061</v>
+        <v>691978.9203393777</v>
       </c>
       <c r="R37" t="n">
-        <v>6603235.561497213</v>
+        <v>6603248.239127089</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5225,22 +5120,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5251,16 +5146,41 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -5271,10 +5191,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108324470</v>
+        <v>109276163</v>
       </c>
       <c r="B38" t="n">
-        <v>93375</v>
+        <v>89403</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5287,38 +5207,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2180</v>
+        <v>1205</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>692004.8945581554</v>
+        <v>691941.2900257387</v>
       </c>
       <c r="R38" t="n">
-        <v>6603397.467630562</v>
+        <v>6603197.522658636</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5342,22 +5266,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5368,16 +5292,41 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Populus tremula</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -5388,10 +5337,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108322100</v>
+        <v>109276103</v>
       </c>
       <c r="B39" t="n">
-        <v>93375</v>
+        <v>89392</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5400,48 +5349,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Lugnet, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>692131.0267995562</v>
+        <v>691937.1653493673</v>
       </c>
       <c r="R39" t="n">
-        <v>6603240.769164512</v>
+        <v>6603208.493708277</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5468,22 +5408,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5494,16 +5434,41 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -5514,10 +5479,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>109345310</v>
+        <v>109276215</v>
       </c>
       <c r="B40" t="n">
-        <v>89403</v>
+        <v>5113</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5530,38 +5495,43 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1205</v>
+        <v>100526</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>691961.9966769988</v>
+        <v>692003.4046029041</v>
       </c>
       <c r="R40" t="n">
-        <v>6603210.779261133</v>
+        <v>6603217.470192255</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5585,22 +5555,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5611,16 +5581,41 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Picea abies</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5631,10 +5626,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107950468</v>
+        <v>109558998</v>
       </c>
       <c r="B41" t="n">
-        <v>8367</v>
+        <v>4717</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5647,35 +5642,40 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>106554</v>
+        <v>102306</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>691996.9554972184</v>
+        <v>691978.018771955</v>
       </c>
       <c r="R41" t="n">
-        <v>6603463.13239482</v>
+        <v>6603235.994792078</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5702,22 +5702,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5732,26 +5732,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY41" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>109345480</v>
+        <v>109557829</v>
       </c>
       <c r="B42" t="n">
-        <v>93375</v>
+        <v>5113</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5764,44 +5760,40 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>692070.2018065801</v>
+        <v>692013.1876338981</v>
       </c>
       <c r="R42" t="n">
-        <v>6603275.269424403</v>
+        <v>6603235.251262903</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5828,22 +5820,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5858,26 +5850,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY42" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>109346315</v>
+        <v>109555797</v>
       </c>
       <c r="B43" t="n">
-        <v>77595</v>
+        <v>4717</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5890,35 +5878,40 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6450</v>
+        <v>102306</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>692015.0415873285</v>
+        <v>691880.1240311366</v>
       </c>
       <c r="R43" t="n">
-        <v>6603308.535066666</v>
+        <v>6603218.794028151</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5945,22 +5938,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5975,26 +5968,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108478228</v>
+        <v>109559039</v>
       </c>
       <c r="B44" t="n">
-        <v>93375</v>
+        <v>93158</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6007,35 +5996,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2180</v>
+        <v>2818</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>692049.6628273097</v>
+        <v>692012.0683376996</v>
       </c>
       <c r="R44" t="n">
-        <v>6603418.053243431</v>
+        <v>6603237.227088488</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -6062,22 +6051,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6092,26 +6081,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>109954713</v>
+        <v>109555657</v>
       </c>
       <c r="B45" t="n">
-        <v>8377</v>
+        <v>4717</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6124,21 +6109,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>106545</v>
+        <v>102306</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -6150,14 +6135,14 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>692177.3757415327</v>
+        <v>691872.5427855599</v>
       </c>
       <c r="R45" t="n">
-        <v>6603280.243474371</v>
+        <v>6603207.733212797</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -6184,7 +6169,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -6194,7 +6179,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6226,10 +6211,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>109955381</v>
+        <v>109557104</v>
       </c>
       <c r="B46" t="n">
-        <v>96251</v>
+        <v>5402</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6242,39 +6227,40 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>219790</v>
+        <v>101377</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Stekelbock</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Necydalis major</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Lugnet, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>692151.2683162411</v>
+        <v>691994.6471215505</v>
       </c>
       <c r="R46" t="n">
-        <v>6603213.341812189</v>
+        <v>6603239.386073961</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6301,7 +6287,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -6311,12 +6297,17 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>På stående äldre asp.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6343,10 +6334,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>109955210</v>
+        <v>107950268</v>
       </c>
       <c r="B47" t="n">
-        <v>5135</v>
+        <v>8367</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6359,21 +6350,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>105930</v>
+        <v>106554</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6385,14 +6376,14 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Lugnet, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>692151.2683162411</v>
+        <v>691942.1301243256</v>
       </c>
       <c r="R47" t="n">
-        <v>6603213.341812189</v>
+        <v>6603370.37205842</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6419,22 +6410,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6449,22 +6440,26 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY47" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110551719</v>
+        <v>109346216</v>
       </c>
       <c r="B48" t="n">
-        <v>96265</v>
+        <v>93044</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6477,37 +6472,38 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>219790</v>
+        <v>2809</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>692120.8163919358</v>
+        <v>692014.8860874517</v>
       </c>
       <c r="R48" t="n">
-        <v>6603171.630735207</v>
+        <v>6603311.576628731</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6531,22 +6527,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6561,22 +6557,26 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>110551716</v>
+        <v>108324470</v>
       </c>
       <c r="B49" t="n">
-        <v>73689</v>
+        <v>93375</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6585,41 +6585,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>308</v>
+        <v>2180</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>692167.5048449171</v>
+        <v>692004.8945581554</v>
       </c>
       <c r="R49" t="n">
-        <v>6603274.147568627</v>
+        <v>6603397.467630562</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6643,27 +6644,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>högstubbe invid tallmosse</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6678,22 +6674,26 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
-        </is>
-      </c>
-      <c r="AY49" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>110551710</v>
+        <v>109345310</v>
       </c>
       <c r="B50" t="n">
-        <v>78107</v>
+        <v>89403</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6702,41 +6702,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6453</v>
+        <v>1205</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>692213.6378095441</v>
+        <v>691961.9966769988</v>
       </c>
       <c r="R50" t="n">
-        <v>6603278.033021837</v>
+        <v>6603210.779261133</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6760,27 +6761,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>tallved</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6795,22 +6791,26 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
-        </is>
-      </c>
-      <c r="AY50" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>110551712</v>
+        <v>107950468</v>
       </c>
       <c r="B51" t="n">
-        <v>78107</v>
+        <v>8367</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6819,41 +6819,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6453</v>
+        <v>106554</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>692226.5665804257</v>
+        <v>691996.9554972184</v>
       </c>
       <c r="R51" t="n">
-        <v>6603274.120364176</v>
+        <v>6603463.13239482</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6877,27 +6878,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>tallved</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6912,22 +6908,26 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
-        </is>
-      </c>
-      <c r="AY51" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>110551713</v>
+        <v>109346315</v>
       </c>
       <c r="B52" t="n">
-        <v>78107</v>
+        <v>77595</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6936,41 +6936,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6453</v>
+        <v>6450</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>692007.2857414843</v>
+        <v>692015.0415873285</v>
       </c>
       <c r="R52" t="n">
-        <v>6603221.226447063</v>
+        <v>6603308.535066666</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6994,27 +6995,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>tallved</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7029,22 +7025,26 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
-        </is>
-      </c>
-      <c r="AY52" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>110551715</v>
+        <v>110551713</v>
       </c>
       <c r="B53" t="n">
-        <v>5295</v>
+        <v>78107</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7057,21 +7057,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>101728</v>
+        <v>6453</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -7081,10 +7081,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>692043.1994797718</v>
+        <v>692007.2857414843</v>
       </c>
       <c r="R53" t="n">
-        <v>6603285.578547879</v>
+        <v>6603221.226447063</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>asplåga</t>
+          <t>tallved</t>
         </is>
       </c>
       <c r="AD53" t="b">

--- a/artfynd/A 61718-2022.xlsx
+++ b/artfynd/A 61718-2022.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109087719</v>
+        <v>109093841</v>
       </c>
       <c r="B3" t="n">
-        <v>93375</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,35 +809,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>692101.9868787765</v>
+        <v>692007.8244037007</v>
       </c>
       <c r="R3" t="n">
-        <v>6603400.399665343</v>
+        <v>6603240.56795869</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,22 +894,26 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109087657</v>
+        <v>109093936</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>5135</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +926,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>105930</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -948,14 +952,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>692101.9868787765</v>
+        <v>691966.717275218</v>
       </c>
       <c r="R4" t="n">
-        <v>6603400.399665343</v>
+        <v>6603237.958451725</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1024,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109275724</v>
+        <v>109094776</v>
       </c>
       <c r="B5" t="n">
-        <v>89356</v>
+        <v>4717</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,38 +1044,43 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>102306</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>692162.660162741</v>
+        <v>691966.717275218</v>
       </c>
       <c r="R5" t="n">
-        <v>6603269.325358069</v>
+        <v>6603237.958451725</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,22 +1104,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1121,55 +1130,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109274971</v>
+        <v>109087719</v>
       </c>
       <c r="B6" t="n">
-        <v>8377</v>
+        <v>93375</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1182,43 +1162,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>692158.6768912391</v>
+        <v>692101.9868787765</v>
       </c>
       <c r="R6" t="n">
-        <v>6603337.22776466</v>
+        <v>6603400.399665343</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1242,22 +1217,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1268,52 +1243,23 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>109274466</v>
+        <v>109087657</v>
       </c>
       <c r="B7" t="n">
         <v>8377</v>
@@ -1359,13 +1305,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>692064.4314807209</v>
+        <v>692101.9868787765</v>
       </c>
       <c r="R7" t="n">
-        <v>6603378.149209215</v>
+        <v>6603400.399665343</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1389,22 +1335,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,55 +1361,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Död gren</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Dead branch  # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109274824</v>
+        <v>109094378</v>
       </c>
       <c r="B8" t="n">
-        <v>89412</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1476,42 +1393,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>692116.7626510015</v>
+        <v>691946.2646057748</v>
       </c>
       <c r="R8" t="n">
-        <v>6603330.509254332</v>
+        <v>6603199.809942768</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1535,22 +1448,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1561,31 +1474,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1606,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109275080</v>
+        <v>109095581</v>
       </c>
       <c r="B9" t="n">
-        <v>8377</v>
+        <v>101680</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1622,40 +1510,43 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106545</v>
+        <v>222412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>N Visättra , Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>692087.9689426338</v>
+        <v>691966.717275218</v>
       </c>
       <c r="R9" t="n">
-        <v>6603306.165148152</v>
+        <v>6603237.958451725</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1682,22 +1573,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1708,55 +1599,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109275208</v>
+        <v>109087801</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1769,43 +1631,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>692185.8458587799</v>
+        <v>692008.1486492737</v>
       </c>
       <c r="R10" t="n">
-        <v>6603313.713551708</v>
+        <v>6603393.568070449</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1829,22 +1686,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1855,55 +1712,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109275502</v>
+        <v>109094688</v>
       </c>
       <c r="B11" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1916,48 +1744,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>692020.3893605695</v>
+        <v>691882.1497045225</v>
       </c>
       <c r="R11" t="n">
-        <v>6603293.560877106</v>
+        <v>6603199.075242898</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1984,22 +1799,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2010,31 +1825,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Populus tremula</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -2055,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109275036</v>
+        <v>109094605</v>
       </c>
       <c r="B12" t="n">
-        <v>8377</v>
+        <v>89403</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2071,40 +1861,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>1205</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>692059.0651667865</v>
+        <v>691937.0099140215</v>
       </c>
       <c r="R12" t="n">
-        <v>6603313.83554531</v>
+        <v>6603211.535349998</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
@@ -2131,22 +1920,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2157,31 +1946,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Död gren</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Dead branch  # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2202,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107953046</v>
+        <v>109275724</v>
       </c>
       <c r="B13" t="n">
-        <v>89412</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2214,25 +1978,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5442</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2243,13 +2007,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>692196.0545202596</v>
+        <v>692162.660162741</v>
       </c>
       <c r="R13" t="n">
-        <v>6603382.849667672</v>
+        <v>6603269.325358069</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2273,22 +2037,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2299,16 +2063,41 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2319,10 +2108,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108478240</v>
+        <v>109274971</v>
       </c>
       <c r="B14" t="n">
-        <v>93375</v>
+        <v>8377</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2335,38 +2124,43 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2180</v>
+        <v>106545</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>692066.5236341339</v>
+        <v>692158.6768912391</v>
       </c>
       <c r="R14" t="n">
-        <v>6603416.882525731</v>
+        <v>6603337.22776466</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2390,22 +2184,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2416,16 +2210,41 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2436,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108323070</v>
+        <v>109274466</v>
       </c>
       <c r="B15" t="n">
-        <v>93375</v>
+        <v>8377</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2452,38 +2271,43 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2180</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>692066.468771309</v>
+        <v>692064.4314807209</v>
       </c>
       <c r="R15" t="n">
-        <v>6603348.266898987</v>
+        <v>6603378.149209215</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2507,22 +2331,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2533,16 +2357,41 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Död gren</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Dead branch  # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2553,10 +2402,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>109346026</v>
+        <v>109275899</v>
       </c>
       <c r="B16" t="n">
-        <v>93375</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2569,33 +2418,24 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2603,13 +2443,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>692028.5766858526</v>
+        <v>691978.9203393777</v>
       </c>
       <c r="R16" t="n">
-        <v>6603282.797859765</v>
+        <v>6603248.239127089</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2633,22 +2473,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2659,16 +2499,41 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2679,10 +2544,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109345595</v>
+        <v>109276163</v>
       </c>
       <c r="B17" t="n">
-        <v>93375</v>
+        <v>89403</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2695,31 +2560,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2180</v>
+        <v>1205</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>dm²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -2729,13 +2589,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>692039.1380827061</v>
+        <v>691941.2900257387</v>
       </c>
       <c r="R17" t="n">
-        <v>6603235.561497213</v>
+        <v>6603197.522658636</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2759,22 +2619,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2785,16 +2645,41 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Populus tremula</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2805,10 +2690,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108322100</v>
+        <v>109274824</v>
       </c>
       <c r="B18" t="n">
-        <v>93375</v>
+        <v>89412</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2817,51 +2702,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>m²</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Lugnet, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>692131.0267995562</v>
+        <v>692116.7626510015</v>
       </c>
       <c r="R18" t="n">
-        <v>6603240.769164512</v>
+        <v>6603330.509254332</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2885,22 +2765,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2911,16 +2791,41 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2931,10 +2836,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>109345480</v>
+        <v>109275080</v>
       </c>
       <c r="B19" t="n">
-        <v>93375</v>
+        <v>8377</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2947,44 +2852,40 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2180</v>
+        <v>106545</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>692070.2018065801</v>
+        <v>692087.9689426338</v>
       </c>
       <c r="R19" t="n">
-        <v>6603275.269424403</v>
+        <v>6603306.165148152</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -3011,22 +2912,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3037,16 +2938,41 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -3057,10 +2983,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108478228</v>
+        <v>109275208</v>
       </c>
       <c r="B20" t="n">
-        <v>93375</v>
+        <v>5113</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3073,38 +2999,43 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>692049.6628273097</v>
+        <v>692185.8458587799</v>
       </c>
       <c r="R20" t="n">
-        <v>6603418.053243431</v>
+        <v>6603313.713551708</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3128,22 +3059,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3154,16 +3085,41 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -3174,10 +3130,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>109954713</v>
+        <v>109276103</v>
       </c>
       <c r="B21" t="n">
-        <v>8377</v>
+        <v>89392</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3186,44 +3142,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>106545</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>692177.3757415327</v>
+        <v>691937.1653493673</v>
       </c>
       <c r="R21" t="n">
-        <v>6603280.243474371</v>
+        <v>6603208.493708277</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3250,7 +3201,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3260,7 +3211,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3276,26 +3227,55 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109955381</v>
+        <v>109276215</v>
       </c>
       <c r="B22" t="n">
-        <v>96251</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3308,42 +3288,43 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219790</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Lugnet, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>692151.2683162411</v>
+        <v>692003.4046029041</v>
       </c>
       <c r="R22" t="n">
-        <v>6603213.341812189</v>
+        <v>6603217.470192255</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3367,22 +3348,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3393,26 +3374,55 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109955210</v>
+        <v>109275502</v>
       </c>
       <c r="B23" t="n">
-        <v>5135</v>
+        <v>56411</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3421,20 +3431,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>105930</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3442,23 +3452,31 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Lugnet, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>692151.2683162411</v>
+        <v>692020.3893605695</v>
       </c>
       <c r="R23" t="n">
-        <v>6603213.341812189</v>
+        <v>6603293.560877106</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3485,22 +3503,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3511,26 +3529,55 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Död trädstam</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Dead tree stem # Populus tremula</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110551719</v>
+        <v>109275036</v>
       </c>
       <c r="B24" t="n">
-        <v>96265</v>
+        <v>8377</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3543,37 +3590,43 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>219790</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>692120.8163919358</v>
+        <v>692059.0651667865</v>
       </c>
       <c r="R24" t="n">
-        <v>6603171.630735207</v>
+        <v>6603313.83554531</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3597,22 +3650,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3623,26 +3676,55 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Död gren</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Dead branch  # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110551716</v>
+        <v>109558998</v>
       </c>
       <c r="B25" t="n">
-        <v>73689</v>
+        <v>4717</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3651,41 +3733,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>308</v>
+        <v>102306</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>692167.5048449171</v>
+        <v>691978.018771955</v>
       </c>
       <c r="R25" t="n">
-        <v>6603274.147568627</v>
+        <v>6603235.994792078</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3709,7 +3797,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3719,17 +3807,12 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>högstubbe invid tallmosse</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3744,22 +3827,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110551710</v>
+        <v>109557829</v>
       </c>
       <c r="B26" t="n">
-        <v>78107</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3768,41 +3851,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6453</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>692213.6378095441</v>
+        <v>692013.1876338981</v>
       </c>
       <c r="R26" t="n">
-        <v>6603278.033021837</v>
+        <v>6603235.251262903</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3826,7 +3915,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3836,17 +3925,12 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>tallved</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3861,22 +3945,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110551712</v>
+        <v>109555797</v>
       </c>
       <c r="B27" t="n">
-        <v>78107</v>
+        <v>4717</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3885,41 +3969,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>102306</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>692226.5665804257</v>
+        <v>691880.1240311366</v>
       </c>
       <c r="R27" t="n">
-        <v>6603274.120364176</v>
+        <v>6603218.794028151</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3943,7 +4033,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3953,17 +4043,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>tallved</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3978,22 +4063,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110551715</v>
+        <v>109559039</v>
       </c>
       <c r="B28" t="n">
-        <v>5295</v>
+        <v>93158</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4002,41 +4087,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>101728</v>
+        <v>2818</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Visättra, Upl</t>
+          <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>692043.1994797718</v>
+        <v>692012.0683376996</v>
       </c>
       <c r="R28" t="n">
-        <v>6603285.578547879</v>
+        <v>6603237.227088488</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4060,7 +4146,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4070,17 +4156,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>asplåga</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4095,22 +4176,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Ola Hammarström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>109093841</v>
+        <v>109555657</v>
       </c>
       <c r="B29" t="n">
-        <v>5113</v>
+        <v>4717</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4123,35 +4204,40 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100526</v>
+        <v>102306</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>692007.8244037007</v>
+        <v>691872.5427855599</v>
       </c>
       <c r="R29" t="n">
-        <v>6603240.56795869</v>
+        <v>6603207.733212797</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -4178,22 +4264,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4208,26 +4294,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>109093936</v>
+        <v>109557104</v>
       </c>
       <c r="B30" t="n">
-        <v>5135</v>
+        <v>5402</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4240,21 +4322,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>105930</v>
+        <v>101377</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Stekelbock</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Necydalis major</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4270,10 +4352,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>691966.717275218</v>
+        <v>691994.6471215505</v>
       </c>
       <c r="R30" t="n">
-        <v>6603237.958451725</v>
+        <v>6603239.386073961</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4300,7 +4382,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4310,12 +4392,17 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-27</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>På stående äldre asp.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4342,10 +4429,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>109094776</v>
+        <v>107953046</v>
       </c>
       <c r="B31" t="n">
-        <v>4717</v>
+        <v>89412</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4354,44 +4441,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>102306</v>
+        <v>5442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>691966.717275218</v>
+        <v>692196.0545202596</v>
       </c>
       <c r="R31" t="n">
-        <v>6603237.958451725</v>
+        <v>6603382.849667672</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4418,22 +4500,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4448,22 +4530,26 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY31" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>109094378</v>
+        <v>107950268</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>8367</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4472,39 +4558,44 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>106554</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>691946.2646057748</v>
+        <v>691942.1301243256</v>
       </c>
       <c r="R32" t="n">
-        <v>6603199.809942768</v>
+        <v>6603370.37205842</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4531,22 +4622,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4561,12 +4652,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4577,10 +4668,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>109095581</v>
+        <v>108478240</v>
       </c>
       <c r="B33" t="n">
-        <v>101680</v>
+        <v>93375</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4593,43 +4684,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222412</v>
+        <v>2180</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>N Visättra , Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>691966.717275218</v>
+        <v>692066.5236341339</v>
       </c>
       <c r="R33" t="n">
-        <v>6603237.958451725</v>
+        <v>6603416.882525731</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4656,22 +4739,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4686,22 +4769,26 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY33" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>109087801</v>
+        <v>109346216</v>
       </c>
       <c r="B34" t="n">
-        <v>93375</v>
+        <v>93044</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4714,21 +4801,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2180</v>
+        <v>2809</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4739,10 +4826,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>692008.1486492737</v>
+        <v>692014.8860874517</v>
       </c>
       <c r="R34" t="n">
-        <v>6603393.568070449</v>
+        <v>6603311.576628731</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4769,22 +4856,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4799,22 +4886,26 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY34" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>109094688</v>
+        <v>108323070</v>
       </c>
       <c r="B35" t="n">
-        <v>89392</v>
+        <v>93375</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4823,39 +4914,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>691882.1497045225</v>
+        <v>692066.468771309</v>
       </c>
       <c r="R35" t="n">
-        <v>6603199.075242898</v>
+        <v>6603348.266898987</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4882,22 +4973,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4912,12 +5003,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4928,10 +5019,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>109094605</v>
+        <v>109346026</v>
       </c>
       <c r="B36" t="n">
-        <v>89403</v>
+        <v>93375</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4944,26 +5035,31 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1205</v>
+        <v>2180</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>dm²</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4973,13 +5069,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>691937.0099140215</v>
+        <v>692028.5766858526</v>
       </c>
       <c r="R36" t="n">
-        <v>6603211.535349998</v>
+        <v>6603282.797859765</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5003,22 +5099,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5033,12 +5129,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -5049,10 +5145,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>109275899</v>
+        <v>109345595</v>
       </c>
       <c r="B37" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5065,24 +5161,33 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5090,13 +5195,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>691978.9203393777</v>
+        <v>692039.1380827061</v>
       </c>
       <c r="R37" t="n">
-        <v>6603248.239127089</v>
+        <v>6603235.561497213</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5120,22 +5225,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5146,41 +5251,16 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -5191,10 +5271,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>109276163</v>
+        <v>108324470</v>
       </c>
       <c r="B38" t="n">
-        <v>89403</v>
+        <v>93375</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5207,42 +5287,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1205</v>
+        <v>2180</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>691941.2900257387</v>
+        <v>692004.8945581554</v>
       </c>
       <c r="R38" t="n">
-        <v>6603197.522658636</v>
+        <v>6603397.467630562</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5266,22 +5342,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5292,41 +5368,16 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Populus tremula</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -5337,10 +5388,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>109276103</v>
+        <v>108322100</v>
       </c>
       <c r="B39" t="n">
-        <v>89392</v>
+        <v>93375</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5349,39 +5400,48 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Lugnet, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>691937.1653493673</v>
+        <v>692131.0267995562</v>
       </c>
       <c r="R39" t="n">
-        <v>6603208.493708277</v>
+        <v>6603240.769164512</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5408,22 +5468,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5434,41 +5494,16 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -5479,10 +5514,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>109276215</v>
+        <v>109345310</v>
       </c>
       <c r="B40" t="n">
-        <v>5113</v>
+        <v>89403</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5495,43 +5530,38 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100526</v>
+        <v>1205</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Hästhagen, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>692003.4046029041</v>
+        <v>691961.9966769988</v>
       </c>
       <c r="R40" t="n">
-        <v>6603217.470192255</v>
+        <v>6603210.779261133</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5555,22 +5585,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5581,41 +5611,16 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>Död trädstam</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Dead tree stem # Picea abies</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5626,10 +5631,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>109558998</v>
+        <v>107950468</v>
       </c>
       <c r="B41" t="n">
-        <v>4717</v>
+        <v>8367</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5642,40 +5647,35 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>102306</v>
+        <v>106554</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>691978.018771955</v>
+        <v>691996.9554972184</v>
       </c>
       <c r="R41" t="n">
-        <v>6603235.994792078</v>
+        <v>6603463.13239482</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5702,22 +5702,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5732,22 +5732,26 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY41" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>109557829</v>
+        <v>109345480</v>
       </c>
       <c r="B42" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5760,40 +5764,44 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>692013.1876338981</v>
+        <v>692070.2018065801</v>
       </c>
       <c r="R42" t="n">
-        <v>6603235.251262903</v>
+        <v>6603275.269424403</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5820,22 +5828,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5850,22 +5858,26 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY42" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>109555797</v>
+        <v>109346315</v>
       </c>
       <c r="B43" t="n">
-        <v>4717</v>
+        <v>77595</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5878,40 +5890,35 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>102306</v>
+        <v>6450</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>691880.1240311366</v>
+        <v>692015.0415873285</v>
       </c>
       <c r="R43" t="n">
-        <v>6603218.794028151</v>
+        <v>6603308.535066666</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5938,22 +5945,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5968,22 +5975,26 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>109559039</v>
+        <v>108478228</v>
       </c>
       <c r="B44" t="n">
-        <v>93158</v>
+        <v>93375</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5996,35 +6007,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2818</v>
+        <v>2180</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>692012.0683376996</v>
+        <v>692049.6628273097</v>
       </c>
       <c r="R44" t="n">
-        <v>6603237.227088488</v>
+        <v>6603418.053243431</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -6051,22 +6062,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6081,22 +6092,26 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
+          <t>Tomas Fridström</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Ronny Fors</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+          <t>Tomas Fridström</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>Nya Tärnan gruppen</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>109555657</v>
+        <v>109954713</v>
       </c>
       <c r="B45" t="n">
-        <v>4717</v>
+        <v>8377</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6109,21 +6124,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>102306</v>
+        <v>106545</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -6135,14 +6150,14 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Storskogen, Upl</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>691872.5427855599</v>
+        <v>692177.3757415327</v>
       </c>
       <c r="R45" t="n">
-        <v>6603207.733212797</v>
+        <v>6603280.243474371</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -6169,7 +6184,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -6179,7 +6194,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6211,10 +6226,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>109557104</v>
+        <v>109955381</v>
       </c>
       <c r="B46" t="n">
-        <v>5402</v>
+        <v>96251</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6227,40 +6242,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>101377</v>
+        <v>219790</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stekelbock</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Necydalis major</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Lugnet, Upl</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>691994.6471215505</v>
+        <v>692151.2683162411</v>
       </c>
       <c r="R46" t="n">
-        <v>6603239.386073961</v>
+        <v>6603213.341812189</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6287,7 +6301,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -6297,17 +6311,12 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-05-27</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>På stående äldre asp.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6334,10 +6343,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>107950268</v>
+        <v>109955210</v>
       </c>
       <c r="B47" t="n">
-        <v>8367</v>
+        <v>5135</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6350,21 +6359,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>106554</v>
+        <v>105930</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6376,14 +6385,14 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Lugnet, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>691942.1301243256</v>
+        <v>692151.2683162411</v>
       </c>
       <c r="R47" t="n">
-        <v>6603370.37205842</v>
+        <v>6603213.341812189</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6410,22 +6419,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6440,26 +6449,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY47" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>109346216</v>
+        <v>110551719</v>
       </c>
       <c r="B48" t="n">
-        <v>93044</v>
+        <v>96265</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6472,38 +6477,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2809</v>
+        <v>219790</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>692014.8860874517</v>
+        <v>692120.8163919358</v>
       </c>
       <c r="R48" t="n">
-        <v>6603311.576628731</v>
+        <v>6603171.630735207</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6527,22 +6531,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6557,26 +6561,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ola Hammarström</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108324470</v>
+        <v>110551716</v>
       </c>
       <c r="B49" t="n">
-        <v>93375</v>
+        <v>73689</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6585,42 +6585,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2180</v>
+        <v>308</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>692004.8945581554</v>
+        <v>692167.5048449171</v>
       </c>
       <c r="R49" t="n">
-        <v>6603397.467630562</v>
+        <v>6603274.147568627</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6644,22 +6643,27 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>högstubbe invid tallmosse</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6674,26 +6678,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY49" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ola Hammarström</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>109345310</v>
+        <v>110551710</v>
       </c>
       <c r="B50" t="n">
-        <v>89403</v>
+        <v>78107</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6702,42 +6702,41 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1205</v>
+        <v>6453</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Hästhagen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>691961.9966769988</v>
+        <v>692213.6378095441</v>
       </c>
       <c r="R50" t="n">
-        <v>6603210.779261133</v>
+        <v>6603278.033021837</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6761,22 +6760,27 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>tallved</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6791,26 +6795,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY50" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ola Hammarström</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>107950468</v>
+        <v>110551712</v>
       </c>
       <c r="B51" t="n">
-        <v>8367</v>
+        <v>78107</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6819,42 +6819,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>106554</v>
+        <v>6453</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>691996.9554972184</v>
+        <v>692226.5665804257</v>
       </c>
       <c r="R51" t="n">
-        <v>6603463.13239482</v>
+        <v>6603274.120364176</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6878,22 +6877,27 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>tallved</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6908,26 +6912,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY51" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ola Hammarström</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>109346315</v>
+        <v>110551713</v>
       </c>
       <c r="B52" t="n">
-        <v>77595</v>
+        <v>78107</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6936,42 +6936,41 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6450</v>
+        <v>6453</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Storskogen, Upl</t>
+          <t>Visättra, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>692015.0415873285</v>
+        <v>692007.2857414843</v>
       </c>
       <c r="R52" t="n">
-        <v>6603308.535066666</v>
+        <v>6603221.226447063</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6995,22 +6994,27 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>tallved</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7025,26 +7029,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
+          <t>Ola Hammarström</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Tomas Fridström</t>
-        </is>
-      </c>
-      <c r="AY52" t="inlineStr">
-        <is>
-          <t>Nya Tärnan gruppen</t>
-        </is>
-      </c>
+          <t>Ola Hammarström</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>110551713</v>
+        <v>110551715</v>
       </c>
       <c r="B53" t="n">
-        <v>78107</v>
+        <v>5295</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7057,21 +7057,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6453</v>
+        <v>101728</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -7081,10 +7081,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>692007.2857414843</v>
+        <v>692043.1994797718</v>
       </c>
       <c r="R53" t="n">
-        <v>6603221.226447063</v>
+        <v>6603285.578547879</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>tallved</t>
+          <t>asplåga</t>
         </is>
       </c>
       <c r="AD53" t="b">
